--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.053268</v>
+        <v>2.117160333333333</v>
       </c>
       <c r="H2">
-        <v>6.159803999999999</v>
+        <v>6.351481</v>
       </c>
       <c r="I2">
-        <v>0.04241262911467491</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="J2">
-        <v>0.04241262911467492</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>68.61567815329732</v>
+        <v>72.39435969090822</v>
       </c>
       <c r="R2">
-        <v>617.541103379676</v>
+        <v>651.549237218174</v>
       </c>
       <c r="S2">
-        <v>0.00667062089461549</v>
+        <v>0.005801989400825779</v>
       </c>
       <c r="T2">
-        <v>0.006670620894615491</v>
+        <v>0.005801989400825779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.053268</v>
+        <v>2.117160333333333</v>
       </c>
       <c r="H3">
-        <v>6.159803999999999</v>
+        <v>6.351481</v>
       </c>
       <c r="I3">
-        <v>0.04241262911467491</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="J3">
-        <v>0.04241262911467492</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
-        <v>74.70970845060798</v>
+        <v>77.03447930154533</v>
       </c>
       <c r="R3">
-        <v>672.3873760554718</v>
+        <v>693.3103137139079</v>
       </c>
       <c r="S3">
-        <v>0.007263065171604782</v>
+        <v>0.00617386816202244</v>
       </c>
       <c r="T3">
-        <v>0.007263065171604784</v>
+        <v>0.006173868162022439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.053268</v>
+        <v>2.117160333333333</v>
       </c>
       <c r="H4">
-        <v>6.159803999999999</v>
+        <v>6.351481</v>
       </c>
       <c r="I4">
-        <v>0.04241262911467491</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="J4">
-        <v>0.04241262911467492</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>142.2224470052213</v>
+        <v>202.1413817961057</v>
       </c>
       <c r="R4">
-        <v>1280.002023046992</v>
+        <v>1819.272436164952</v>
       </c>
       <c r="S4">
-        <v>0.01382646141829006</v>
+        <v>0.01620046312525883</v>
       </c>
       <c r="T4">
-        <v>0.01382646141829006</v>
+        <v>0.01620046312525883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.053268</v>
+        <v>2.117160333333333</v>
       </c>
       <c r="H5">
-        <v>6.159803999999999</v>
+        <v>6.351481</v>
       </c>
       <c r="I5">
-        <v>0.04241262911467491</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="J5">
-        <v>0.04241262911467492</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>7.052176858747999</v>
+        <v>7.305836892057222</v>
       </c>
       <c r="R5">
-        <v>63.469591728732</v>
+        <v>65.75253202851501</v>
       </c>
       <c r="S5">
-        <v>0.0006855925580359159</v>
+        <v>0.0005855205901793669</v>
       </c>
       <c r="T5">
-        <v>0.000685592558035916</v>
+        <v>0.0005855205901793669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.053268</v>
+        <v>2.117160333333333</v>
       </c>
       <c r="H6">
-        <v>6.159803999999999</v>
+        <v>6.351481</v>
       </c>
       <c r="I6">
-        <v>0.04241262911467491</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="J6">
-        <v>0.04241262911467492</v>
+        <v>0.04186095203392801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>143.6669210432213</v>
+        <v>163.4442378574483</v>
       </c>
       <c r="R6">
-        <v>1293.002289388992</v>
+        <v>1470.998140717035</v>
       </c>
       <c r="S6">
-        <v>0.01396688907212866</v>
+        <v>0.0130991107556416</v>
       </c>
       <c r="T6">
-        <v>0.01396688907212867</v>
+        <v>0.0130991107556416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>114.680386</v>
       </c>
       <c r="I7">
-        <v>0.7896187408147658</v>
+        <v>0.7558284654521286</v>
       </c>
       <c r="J7">
-        <v>0.7896187408147659</v>
+        <v>0.7558284654521283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>1277.455006080048</v>
+        <v>1307.130276163338</v>
       </c>
       <c r="R7">
-        <v>11497.09505472043</v>
+        <v>11764.17248547004</v>
       </c>
       <c r="S7">
-        <v>0.1241905390259446</v>
+        <v>0.1047589348145117</v>
       </c>
       <c r="T7">
-        <v>0.1241905390259447</v>
+        <v>0.1047589348145116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>114.680386</v>
       </c>
       <c r="I8">
-        <v>0.7896187408147658</v>
+        <v>0.7558284654521286</v>
       </c>
       <c r="J8">
-        <v>0.7896187408147659</v>
+        <v>0.7558284654521283</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
         <v>1390.910847660605</v>
@@ -948,10 +948,10 @@
         <v>12518.19762894545</v>
       </c>
       <c r="S8">
-        <v>0.1352203929577618</v>
+        <v>0.1114734632653147</v>
       </c>
       <c r="T8">
-        <v>0.1352203929577618</v>
+        <v>0.1114734632653146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>114.680386</v>
       </c>
       <c r="I9">
-        <v>0.7896187408147658</v>
+        <v>0.7558284654521286</v>
       </c>
       <c r="J9">
-        <v>0.7896187408147659</v>
+        <v>0.7558284654521283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>2647.831833679014</v>
+        <v>3649.802572179746</v>
       </c>
       <c r="R9">
-        <v>23830.48650311113</v>
+        <v>32848.22314961771</v>
       </c>
       <c r="S9">
-        <v>0.2574146730096626</v>
+        <v>0.2925105758142785</v>
       </c>
       <c r="T9">
-        <v>0.2574146730096626</v>
+        <v>0.2925105758142784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>114.680386</v>
       </c>
       <c r="I10">
-        <v>0.7896187408147658</v>
+        <v>0.7558284654521286</v>
       </c>
       <c r="J10">
-        <v>0.7896187408147659</v>
+        <v>0.7558284654521283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>131.2941717466153</v>
+        <v>131.9119422437322</v>
       </c>
       <c r="R10">
-        <v>1181.647545719538</v>
+        <v>1187.20748019359</v>
       </c>
       <c r="S10">
-        <v>0.01276404560831583</v>
+        <v>0.01057197955763666</v>
       </c>
       <c r="T10">
-        <v>0.01276404560831583</v>
+        <v>0.01057197955763665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>114.680386</v>
       </c>
       <c r="I11">
-        <v>0.7896187408147658</v>
+        <v>0.7558284654521286</v>
       </c>
       <c r="J11">
-        <v>0.7896187408147659</v>
+        <v>0.7558284654521283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N11">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O11">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P11">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q11">
-        <v>2674.724384196014</v>
+        <v>2951.098851900523</v>
       </c>
       <c r="R11">
-        <v>24072.51945776413</v>
+        <v>26559.88966710471</v>
       </c>
       <c r="S11">
-        <v>0.260029090213081</v>
+        <v>0.2365135120003871</v>
       </c>
       <c r="T11">
-        <v>0.260029090213081</v>
+        <v>0.2365135120003871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>8.102716666666666</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H12">
-        <v>24.30815</v>
+        <v>0.250031</v>
       </c>
       <c r="I12">
-        <v>0.1673709992093717</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="J12">
-        <v>0.1673709992093718</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N12">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q12">
-        <v>270.7748812952611</v>
+        <v>2.849860394430444</v>
       </c>
       <c r="R12">
-        <v>2436.97393165735</v>
+        <v>25.648743549874</v>
       </c>
       <c r="S12">
-        <v>0.0263239631162692</v>
+        <v>0.0002283998349169069</v>
       </c>
       <c r="T12">
-        <v>0.02632396311626921</v>
+        <v>0.0002283998349169069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>8.102716666666666</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H13">
-        <v>24.30815</v>
+        <v>0.250031</v>
       </c>
       <c r="I13">
-        <v>0.1673709992093717</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="J13">
-        <v>0.1673709992093718</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
         <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q13">
-        <v>294.8234715704666</v>
+        <v>3.032522319478667</v>
       </c>
       <c r="R13">
-        <v>2653.411244134199</v>
+        <v>27.292700875308</v>
       </c>
       <c r="S13">
-        <v>0.0286618986011803</v>
+        <v>0.0002430391321990309</v>
       </c>
       <c r="T13">
-        <v>0.0286618986011803</v>
+        <v>0.0002430391321990308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>8.102716666666666</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H14">
-        <v>24.30815</v>
+        <v>0.250031</v>
       </c>
       <c r="I14">
-        <v>0.1673709992093717</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="J14">
-        <v>0.1673709992093718</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N14">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q14">
-        <v>561.2458732729111</v>
+        <v>7.957453046283556</v>
       </c>
       <c r="R14">
-        <v>5051.2128594562</v>
+        <v>71.61707741655201</v>
       </c>
       <c r="S14">
-        <v>0.05456272604209605</v>
+        <v>0.0006377438577981405</v>
       </c>
       <c r="T14">
-        <v>0.05456272604209607</v>
+        <v>0.0006377438577981404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>8.102716666666666</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H15">
-        <v>24.30815</v>
+        <v>0.250031</v>
       </c>
       <c r="I15">
-        <v>0.1673709992093717</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="J15">
-        <v>0.1673709992093718</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N15">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q15">
-        <v>27.82967979321667</v>
+        <v>0.2875999635294444</v>
       </c>
       <c r="R15">
-        <v>250.46711813895</v>
+        <v>2.588399671765</v>
       </c>
       <c r="S15">
-        <v>0.00270552224382801</v>
+        <v>2.304947439552087E-05</v>
       </c>
       <c r="T15">
-        <v>0.00270552224382801</v>
+        <v>2.304947439552087E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>8.102716666666666</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H16">
-        <v>24.30815</v>
+        <v>0.250031</v>
       </c>
       <c r="I16">
-        <v>0.1673709992093717</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="J16">
-        <v>0.1673709992093718</v>
+        <v>0.001647889003839428</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N16">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O16">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P16">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q16">
-        <v>566.946134447911</v>
+        <v>6.434109814031665</v>
       </c>
       <c r="R16">
-        <v>5102.5152100312</v>
+        <v>57.906988326285</v>
       </c>
       <c r="S16">
-        <v>0.05511688920599816</v>
+        <v>0.0005156567045298294</v>
       </c>
       <c r="T16">
-        <v>0.05511688920599818</v>
+        <v>0.0005156567045298294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02893233333333333</v>
+        <v>10.09425733333333</v>
       </c>
       <c r="H17">
-        <v>0.086797</v>
+        <v>30.282772</v>
       </c>
       <c r="I17">
-        <v>0.0005976308611875376</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="J17">
-        <v>0.0005976308611875377</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N17">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q17">
-        <v>0.9668546298992223</v>
+        <v>345.1638899031209</v>
       </c>
       <c r="R17">
-        <v>8.701691669093</v>
+        <v>3106.475009128088</v>
       </c>
       <c r="S17">
-        <v>9.399485467231437E-05</v>
+        <v>0.02766289030410761</v>
       </c>
       <c r="T17">
-        <v>9.399485467231439E-05</v>
+        <v>0.02766289030410761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02893233333333333</v>
+        <v>10.09425733333333</v>
       </c>
       <c r="H18">
-        <v>0.086797</v>
+        <v>30.282772</v>
       </c>
       <c r="I18">
-        <v>0.0005976308611875376</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="J18">
-        <v>0.0005976308611875377</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N18">
         <v>109.157268</v>
       </c>
       <c r="O18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q18">
-        <v>1.052724821177333</v>
+        <v>367.2871843318773</v>
       </c>
       <c r="R18">
-        <v>9.474523390596</v>
+        <v>3305.584658986896</v>
       </c>
       <c r="S18">
-        <v>0.0001023429102126919</v>
+        <v>0.0294359444527323</v>
       </c>
       <c r="T18">
-        <v>0.0001023429102126919</v>
+        <v>0.0294359444527323</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02893233333333333</v>
+        <v>10.09425733333333</v>
       </c>
       <c r="H19">
-        <v>0.086797</v>
+        <v>30.282772</v>
       </c>
       <c r="I19">
-        <v>0.0005976308611875376</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="J19">
-        <v>0.0005976308611875377</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N19">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q19">
-        <v>2.004038072106222</v>
+        <v>963.7754370510471</v>
       </c>
       <c r="R19">
-        <v>18.036342648956</v>
+        <v>8673.978933459424</v>
       </c>
       <c r="S19">
-        <v>0.0001948268762647841</v>
+        <v>0.07724102947275142</v>
       </c>
       <c r="T19">
-        <v>0.0001948268762647842</v>
+        <v>0.07724102947275141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.02893233333333333</v>
+        <v>10.09425733333333</v>
       </c>
       <c r="H20">
-        <v>0.086797</v>
+        <v>30.282772</v>
       </c>
       <c r="I20">
-        <v>0.0005976308611875376</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="J20">
-        <v>0.0005976308611875377</v>
+        <v>0.1995858392942337</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N20">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q20">
-        <v>0.09937131032233334</v>
+        <v>34.83297720190889</v>
       </c>
       <c r="R20">
-        <v>0.894341792901</v>
+        <v>313.49679481718</v>
       </c>
       <c r="S20">
-        <v>9.660595898805126E-06</v>
+        <v>0.002791661745301168</v>
       </c>
       <c r="T20">
-        <v>9.660595898805127E-06</v>
+        <v>0.002791661745301168</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.09425733333333</v>
+      </c>
+      <c r="H21">
+        <v>30.282772</v>
+      </c>
+      <c r="I21">
+        <v>0.1995858392942337</v>
+      </c>
+      <c r="J21">
+        <v>0.1995858392942337</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N21">
+        <v>231.599235</v>
+      </c>
+      <c r="O21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q21">
+        <v>779.2740920977133</v>
+      </c>
+      <c r="R21">
+        <v>7013.46682887942</v>
+      </c>
+      <c r="S21">
+        <v>0.06245431331934117</v>
+      </c>
+      <c r="T21">
+        <v>0.06245431331934117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.054463</v>
+      </c>
+      <c r="H22">
+        <v>0.163389</v>
+      </c>
+      <c r="I22">
+        <v>0.001076854215870514</v>
+      </c>
+      <c r="J22">
+        <v>0.001076854215870513</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N22">
+        <v>102.582254</v>
+      </c>
+      <c r="O22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q22">
+        <v>1.862312433200667</v>
+      </c>
+      <c r="R22">
+        <v>16.760811898806</v>
+      </c>
+      <c r="S22">
+        <v>0.0001492535750656459</v>
+      </c>
+      <c r="T22">
+        <v>0.0001492535750656458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.054463</v>
+      </c>
+      <c r="H23">
+        <v>0.163389</v>
+      </c>
+      <c r="I23">
+        <v>0.001076854215870514</v>
+      </c>
+      <c r="J23">
+        <v>0.001076854215870513</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>36.385756</v>
+      </c>
+      <c r="N23">
+        <v>109.157268</v>
+      </c>
+      <c r="O23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q23">
+        <v>1.981677429028</v>
+      </c>
+      <c r="R23">
+        <v>17.835096861252</v>
+      </c>
+      <c r="S23">
+        <v>0.0001588199894047836</v>
+      </c>
+      <c r="T23">
+        <v>0.0001588199894047836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.054463</v>
+      </c>
+      <c r="H24">
+        <v>0.163389</v>
+      </c>
+      <c r="I24">
+        <v>0.001076854215870514</v>
+      </c>
+      <c r="J24">
+        <v>0.001076854215870513</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N24">
+        <v>286.432792</v>
+      </c>
+      <c r="O24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q24">
+        <v>5.199996383565334</v>
+      </c>
+      <c r="R24">
+        <v>46.799967452088</v>
+      </c>
+      <c r="S24">
+        <v>0.000416749647770798</v>
+      </c>
+      <c r="T24">
+        <v>0.0004167496477707978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02893233333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.086797</v>
-      </c>
-      <c r="I21">
-        <v>0.0005976308611875376</v>
-      </c>
-      <c r="J21">
-        <v>0.0005976308611875377</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>69.96988266666666</v>
-      </c>
-      <c r="N21">
-        <v>209.909648</v>
-      </c>
-      <c r="O21">
-        <v>0.3293096741153467</v>
-      </c>
-      <c r="P21">
-        <v>0.3293096741153468</v>
-      </c>
-      <c r="Q21">
-        <v>2.024391968606222</v>
-      </c>
-      <c r="R21">
-        <v>18.219527717456</v>
-      </c>
-      <c r="S21">
-        <v>0.000196805624138942</v>
-      </c>
-      <c r="T21">
-        <v>0.0001968056241389421</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.054463</v>
+      </c>
+      <c r="H25">
+        <v>0.163389</v>
+      </c>
+      <c r="I25">
+        <v>0.001076854215870514</v>
+      </c>
+      <c r="J25">
+        <v>0.001076854215870513</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.352315</v>
+      </c>
+      <c r="O25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q25">
+        <v>0.1879393772816667</v>
+      </c>
+      <c r="R25">
+        <v>1.691454395535</v>
+      </c>
+      <c r="S25">
+        <v>1.506225456847255E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.506225456847255E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.054463</v>
+      </c>
+      <c r="H26">
+        <v>0.163389</v>
+      </c>
+      <c r="I26">
+        <v>0.001076854215870514</v>
+      </c>
+      <c r="J26">
+        <v>0.001076854215870513</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N26">
+        <v>231.599235</v>
+      </c>
+      <c r="O26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q26">
+        <v>4.204529711935</v>
+      </c>
+      <c r="R26">
+        <v>37.840767407415</v>
+      </c>
+      <c r="S26">
+        <v>0.0003369687490608137</v>
+      </c>
+      <c r="T26">
+        <v>0.0003369687490608136</v>
       </c>
     </row>
   </sheetData>
